--- a/doc/ue4_softwareocclusion.xlsx
+++ b/doc/ue4_softwareocclusion.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC054011-B589-45D8-BAB7-F1E1EA05EE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94611EC-1901-4491-AC31-3A34425D37C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="优化" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>软剔除处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +52,10 @@
   </si>
   <si>
     <t>需要进行遮挡剔除的对象；被剔除者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历完被遮挡物后需要离开跳出循环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -433,4 +438,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E3A4DE-EBC9-478D-A2EC-7F5BC960D076}">
+  <dimension ref="B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue4_softwareocclusion.xlsx
+++ b/doc/ue4_softwareocclusion.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94611EC-1901-4491-AC31-3A34425D37C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A1B0E1-A52F-4DAC-AF77-F01B8E39B22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="优化" sheetId="2" r:id="rId2"/>
+    <sheet name="概述" sheetId="3" r:id="rId1"/>
+    <sheet name="FSceneSoftwareOcclusion" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="优化" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>软剔除处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +58,230 @@
   </si>
   <si>
     <t>遍历完被遮挡物后需要离开跳出循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSceneSoftwareOcclusion</t>
+  </si>
+  <si>
+    <t>软遮挡剔除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FSceneViewState : public FSceneViewStateInterface, public FRenderResource</t>
+  </si>
+  <si>
+    <t>// Software occlusion data</t>
+  </si>
+  <si>
+    <t>TUniquePtr&lt;FSceneSoftwareOcclusion&gt; SceneSoftwareOcclusion;</t>
+  </si>
+  <si>
+    <t>SceneSoftwareOcclusion = MakeUnique&lt;FSceneSoftwareOcclusion&gt;();</t>
+  </si>
+  <si>
+    <t>FSceneViewStateInterface* FRendererModule::AllocateViewState()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>return new FSceneViewState();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Cull occluded primitives in the view.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>static int32 OcclusionCull(FRHICommandListImmediate&amp; RHICmdList, const FScene* Scene, FViewInfo&amp; View, FGlobalDynamicVertexBuffer&amp; DynamicVertexBuffer)</t>
+  </si>
+  <si>
+    <t>视锥剔除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float CurrentRealTime = View.Family-&gt;CurrentRealTime;</t>
+  </si>
+  <si>
+    <t>if (ViewState)</t>
+  </si>
+  <si>
+    <t>if (ViewState-&gt;SceneSoftwareOcclusion)</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_SoftwareOcclusionCull)</t>
+  </si>
+  <si>
+    <t>NumOccludedPrimitives += ViewState-&gt;SceneSoftwareOcclusion-&gt;Process(RHICmdList, Scene, View);</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！软剔除处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 FSceneSoftwareOcclusion::Process(FRHICommandListImmediate&amp; RHICmdList, const FScene* Scene, FViewInfo&amp; View)</t>
+  </si>
+  <si>
+    <t>处理流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Make sure occlusion task issued last frame is completed</t>
+  </si>
+  <si>
+    <t>FlushResults();</t>
+  </si>
+  <si>
+    <t>强制等待上一帧的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSceneSoftwareOcclusion::FlushResults()</t>
+  </si>
+  <si>
+    <t>if (TaskRef.IsValid())</t>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().WaitUntilTaskCompletes(TaskRef);</t>
+  </si>
+  <si>
+    <t>TaskRef = nullptr;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单独的Task </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Finished processing occlusion, set results as available</t>
+  </si>
+  <si>
+    <t>Available = MoveTemp(Processing);</t>
+  </si>
+  <si>
+    <t>临时保存上一帧结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Submit occlusion scene for next frame</t>
+  </si>
+  <si>
+    <t>Processing = MakeUnique&lt;FOcclusionFrameResults&gt;();</t>
+  </si>
+  <si>
+    <t>TaskRef = SubmitScene(Scene, View, Processing.Get());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发起新的计算，内部会异步计算Task </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Submit occlusion task</t>
+  </si>
+  <si>
+    <t>FOcclusionSceneData* SceneDataParam = SceneData.Release();</t>
+  </si>
+  <si>
+    <t>return FFunctionGraphTask::CreateAndDispatchWhenReady([SceneDataParam, Results]()</t>
+  </si>
+  <si>
+    <t>ProcessOcclusionFrame(*SceneDataParam, *Results);</t>
+  </si>
+  <si>
+    <t>delete SceneDataParam;</t>
+  </si>
+  <si>
+    <t>}, GET_STATID(STAT_SoftwareOcclusionProcess), NULL, GetOcclusionThreadName());</t>
+  </si>
+  <si>
+    <t>// Apply available occlusion results</t>
+  </si>
+  <si>
+    <t>int32 NumCulled = 0;</t>
+  </si>
+  <si>
+    <t>if (Available.IsValid())</t>
+  </si>
+  <si>
+    <t>NumCulled = ApplyResults(Scene, View, *Available);</t>
+  </si>
+  <si>
+    <t>使用上一帧的数据进行计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int32 ApplyResults(const FScene* Scene, FViewInfo&amp; View, const FOcclusionFrameResults&amp; Results)</t>
+  </si>
+  <si>
+    <t>int32 NumOccluded = 0;</t>
+  </si>
+  <si>
+    <t>for (FSceneSetBitIterator BitIt(View.PrimitiveVisibilityMap); BitIt; ++BitIt)</t>
+  </si>
+  <si>
+    <t>uint32 PrimitiveIndex = BitIt.GetIndex();</t>
+  </si>
+  <si>
+    <t>FPrimitiveComponentId PrimId = Scene-&gt;PrimitiveComponentIds[PrimitiveIndex];</t>
+  </si>
+  <si>
+    <t>const bool* bVisiblePtr = Results.VisibilityMap.Find(PrimId);</t>
+  </si>
+  <si>
+    <t>if (bVisiblePtr)</t>
+  </si>
+  <si>
+    <t>if (*bVisiblePtr == false)</t>
+  </si>
+  <si>
+    <t>View.PrimitiveVisibilityMap[PrimitiveIndex] = false;</t>
+  </si>
+  <si>
+    <t>NumOccluded++;</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>View.PrimitiveDefinitelyUnoccludedMap[PrimitiveIndex] = true;</t>
+  </si>
+  <si>
+    <t>// This applies for those are not occludees, so just follow the frustum culling result.</t>
+  </si>
+  <si>
+    <t>View.PrimitiveDefinitelyUnoccludedMap[PrimitiveIndex] = View.PrimitiveVisibilityMap[PrimitiveIndex];</t>
+  </si>
+  <si>
+    <t>INC_DWORD_STAT_BY(STAT_SoftwareCulledPrimitives, NumOccluded);</t>
+  </si>
+  <si>
+    <t>return NumOccluded;</t>
+  </si>
+  <si>
+    <t>比较简单，就看对应的单元是否可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集所有的可见单元对应的BOX，然后换算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起一个计算，三角面剔除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剔除的时候就是按照平面型算，深度就是最近的一个，无法解决穿插</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +313,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,9 +341,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -390,6 +624,482 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E695C9-FE0C-49AA-9F9D-282DC3FD67E0}">
+  <dimension ref="B3:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC53654-7F69-4B20-B710-462C8EF5D1B3}">
+  <dimension ref="B4:S68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="P38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="P41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="R49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="S50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="S51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="R52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="R53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="R54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="S55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="R56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="R60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="R61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="Q62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="P65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="P67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:C18"/>
   <sheetViews>
@@ -440,11 +1150,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E3A4DE-EBC9-478D-A2EC-7F5BC960D076}">
   <dimension ref="B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
